--- a/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori1/99/incorrect_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori1/99/incorrect_predictions_99.xlsx
@@ -496,12 +496,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The target area is in an Altitude Zone</t>
+          <t>GEO Zone Info:</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3-10</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -512,26 +512,26 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Propulsion output is limited to ensure the health of the battery</t>
+          <t>The target area is in an Altitude Zone</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3-13</t>
+          <t>3-10</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori1/99/incorrect_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori1/99/incorrect_predictions_99.xlsx
@@ -496,12 +496,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GEO Zone Info:</t>
+          <t>The target area is in an Altitude Zone</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -512,26 +512,26 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
+          <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The target area is in an Altitude Zone</t>
+          <t>Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3-10</t>
+          <t>3-13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
